--- a/pred_ohlcv/54_21/2020-01-25 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-37895.81411139001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-36585.20931139001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-42414.59801139001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-40554.59801139001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-44063.46121139001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-44195.26121139001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-43819.26121139001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-43817.86121139001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-43828.38691139001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-44385.52897136</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-44421.72437136</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-45413.99967136</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-47514.63557136</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-46493.22147136</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-46024.69017135999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-47324.70957135999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-50324.70957135999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-50313.85957135999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-50838.16317135999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-52828.15067136</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-52826.75067135999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-52826.75067135999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-52834.67587135999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-54694.67587135999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-54973.54867135999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-55453.65638821999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-55627.17808821999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-55566.61198821999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-56121.84838821999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-56056.94838821999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-57880.48588821998</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-57275.29698821998</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-59379.97208821998</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-59378.57208821998</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-59365.57208821998</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-59840.40208821998</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-54761.84038821999</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-54567.51808821999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-57026.06328821999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-56196.91158822</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-55629.44478822</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-55920.56478822</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-55918.56478822</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-56097.12478822</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-56101.77478822</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-55921.72438822</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-56293.06438821999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-56130.61228821999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-56122.12438821999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-56120.72438821999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-56172.72438821999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-56441.96438821999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-55695.96438821999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-55693.96438821999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-56013.83438821999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-56011.83438821999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-56981.02438821999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-56882.58678822</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-57060.11678822</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-56971.60588821999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-57105.62498821999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-57025.70158821999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-57201.57818822</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-58962.64918821999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-59409.73918821999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-59136.27918821999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-59602.20998821999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-60110.46998821999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-59906.77998821999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-62386.77998821999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-62383.97998821999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-62840.90998821999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-62839.50998821999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-63338.75998821999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-66546.56998821998</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-66545.16998821999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-67016.08498821998</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-67016.08498821998</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-70366.84088821999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-73606.84088821999</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-73603.84088821999</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-76562.44088821999</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-90562.44088821999</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-90349.61848822</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-90349.61848822</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-82885.79928822001</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 STRAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-36585.20931139001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-42414.59801139001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-43663.19801139001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-44195.26121139001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-43817.86121139001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-43828.38691139001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-44385.52897136</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-44421.72437136</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-45413.99967136</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-47514.63557136</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-46493.22147136</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-46024.69017135999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-47324.70957135999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-50324.70957135999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-50313.85957135999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-50838.16317135999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-52828.15067136</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-52826.75067135999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-52826.75067135999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-52834.67587135999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-54694.67587135999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-54973.54867135999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-54750.52918821999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-55453.65638821999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-55627.17808821999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-56173.64808821999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-55064.70608821999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-55288.73228821999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-55566.61198821999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-56121.84838821999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-56056.94838821999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-57275.29698821998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-59367.57208821998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-59369.57208821998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-59365.57208821998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-59840.40208821998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-59838.40208821998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-60098.82478821999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-55051.18038821999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-54761.84038821999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-54567.51808821999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-54932.09578821999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-55320.69578821999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-55311.90578821999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-55843.90918821999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-55397.33918821999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-57303.69608821999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-57028.06328821999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-57026.06328821999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-56196.91158822</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-55629.44478822</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-55920.56478822</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-55918.56478822</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-56097.12478822</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-56101.77478822</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-55921.72438822</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-56293.06438821999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-56130.61228821999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-56122.12438821999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-56120.72438821999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-56172.72438821999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-56441.96438821999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-55695.96438821999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-55693.96438821999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-56013.83438821999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-56011.83438821999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-56981.02438821999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-56882.58678822</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-57060.11678822</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-56971.60588821999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-57105.62498821999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-57025.70158821999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-57201.57818822</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-58962.64918821999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-59409.73918821999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-59136.27918821999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-59602.20998821999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-60110.46998821999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-59906.77998821999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-62386.77998821999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-62383.97998821999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-62840.90998821999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-62839.50998821999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-63338.75998821999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-66546.56998821998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-70366.84088821999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-73606.84088821999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-73603.84088821999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-76562.44088821999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-90562.44088821999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-90349.61848822</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-82885.79928822001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-82885.79928822001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
